--- a/jxls-poi/src/test/resources/org/jxls3/ClearTemplateCellsTest.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls3/ClearTemplateCellsTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\2023Stuff\GitRepos\jxls\jxls-poi\src\test\resources\org\jxls\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\git-repos-2203\jxls3\jxls-poi\src\test\resources\org\jxls3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB6B5F3-9F84-446E-B45A-45B4672D28DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF405408-63E6-4F1F-80AC-2F137DA4F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2894" yWindow="1902" windowWidth="19562" windowHeight="10256" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21570" windowHeight="11385" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="C2" sheetStreaming="true")</t>
+jx:area(lastCell="D2" sheetStreaming="true")</t>
         </r>
       </text>
     </comment>
@@ -85,7 +85,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" var="e" lastCell="C2")</t>
+jx:each(items="employees" var="e" lastCell="D2")</t>
         </r>
       </text>
     </comment>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>${e.payment}</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -206,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,20 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139056DA-F565-48DD-A2AA-3D287E85F6DC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -535,6 +538,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
